--- a/02_programme_task/xlsx_out/55.2 Timothy.xlsx
+++ b/02_programme_task/xlsx_out/55.2 Timothy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,751 +453,1039 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul, an apostle of Christ Jesus by the will of God according to the promise of the life that is in Christ Jesus, 2</t>
+          <t>The Second Letter of Paul to Timothy Timothy Greeting</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2 Timothy 1:2</t>
+          <t>2 Timothy 1:1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>To Timothy, my beloved child: Grace, mercy, and peace from God the Father and Christ Jesus our Lord. Guard the Deposit Entrusted to You 3</t>
+          <t>Paul, a an apostle of Christ Jesus b by the will of God according to c the promise of the life that is in Christ Jesus,</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2 Timothy 1:5</t>
+          <t>2 Timothy 1:2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>I m reminded of your sincere faith, a faith that dwelt first in your grandmother Lois and your mother Eunice and now, I m sure, dwells in you as well. 6</t>
+          <t>To Timothy, d my beloved child: e Grace, mercy, and peace from God the Father and Christ Jesus our Lord. Guard the Deposit Entrusted to You</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2 Timothy 1:6</t>
+          <t>2 Timothy 1:3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For this reason I remind you to fan into flame the gift of God, which is in you through the laying on of my hands, 7</t>
+          <t>f I thank God g whom I serve, as did my ancestors, h with a clear conscience, as I remember you i constantly in my prayers night and day.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2 Timothy 1:7</t>
+          <t>2 Timothy 1:4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>for God gave us a spirit not of fear but of power and love and self- control. 8</t>
+          <t>j As I remember your tears, k I long to see you, that I may be filled with joy.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2 Timothy 1:8</t>
+          <t>2 Timothy 1:5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Therefore do not be ashamed of the testimony about our Lord, nor of me his prisoner, but share in suffering for the gospel by the power of God, 9</t>
+          <t>I am reminded of l your sincere faith, a faith that dwelt first in your grandmother Lois and m your mother Eunice and now, I am sure, dwells in you as well.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2 Timothy 1:10</t>
+          <t>2 Timothy 1:6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>and which now has been manifested through the appearing of our Savior Christ Jesus, who abolished death and brought life and immortality to light through the gospel,</t>
+          <t>For this reason I remind you n to fan into flame the gift of God, which is in you through the laying on of my hands,</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2 Timothy 1:14</t>
+          <t>2 Timothy 1:7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>By the Holy Spirit who dwells within us, guard the good deposit entrusted to you.</t>
+          <t>for God gave us o a spirit not of fear but p of power and love and self-control.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2 Timothy 1:15</t>
+          <t>2 Timothy 1:8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>You are aware that all who are in Asia turned away from me, among whom are Phygelus and Hermogenes.</t>
+          <t>Therefore q do not be ashamed of r the testimony about our Lord, nor of s me his prisoner, but t share in suffering for the gospel by the power of God,</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2 Timothy 1:16</t>
+          <t>2 Timothy 1:9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>May the Lord grant mercy to the household of Onesiphorus, for he often refreshed me and was not ashamed of my chains,</t>
+          <t>u who saved us and v called us t o a holy calling, w not because of our works but because of v his own purpose and grace, which he gave us in Christ Jesus x before the ages began,</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2 Timothy 1:17</t>
+          <t>2 Timothy 1:10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>but when he arrived in Rome he searched for me earnestly and found m e16</t>
+          <t>and which now has y been manifested through z the appearing of our Savior Christ Jesus, a who abolished death and b brought life and c immortality to light through the gospel,</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2 Timothy 1:18</t>
+          <t>2 Timothy 1:11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>may the Lord grant him to find mercy from the Lord on that day16 ! and you well know all the service he rendered at Ephesus. A Good Soldier of Christ Jesus 2</t>
+          <t>d for which I was appointed a preacher and apostle and teacher,</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2 Timothy 2:1</t>
+          <t>2 Timothy 1:12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>You then, my child, be strengthened by the grace that is in Christ Jesus, 2</t>
+          <t>e which is why I suffer as I do. But f I am not ashamed, for g I know whom I have believed, and I am convinced that he is able to guard until h that day i what has been entrusted to me.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2 Timothy 2:2</t>
+          <t>2 Timothy 1:13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>and what you have heard from me in the presence of many witnesses entrust to faithful men, who will be able to teach others also. 3</t>
+          <t>j Follow k the pattern of l the soun d words m that you have heard from me, in n the faith and love that are in Christ Jesus.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2 Timothy 2:4</t>
+          <t>2 Timothy 1:14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>No soldier gets entangled in civilian pursuits, since his aim is to please the one who enlisted him. 5</t>
+          <t>By the Holy Spirit o who dwells within us, guard i the good deposit entrusted to you.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2 Timothy 2:6</t>
+          <t>2 Timothy 1:15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>It is the hard- working farmer who ought to have the first share of the crops. 7</t>
+          <t>You are aware that p all who are in Asia turned away from me, among whom are Phygelus and Hermogenes.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2 Timothy 2:7</t>
+          <t>2 Timothy 1:16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Think over what I say, for the Lord will give you understanding in everything. 8</t>
+          <t>May the Lord grant mercy to q the household of Onesiphorus, for he often r refreshed me and was not ashamed of s my chains,</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2 Timothy 2:8</t>
+          <t>2 Timothy 1:17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Remember Jesus Christ, risen from the dead, the offspring of David, as preached in my gospel, 9</t>
+          <t>but when he arrived in Rome t he searched for me earnestly and found m e</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2 Timothy 2:10</t>
+          <t>2 Timothy 1:18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Therefore I ndure everything for the sake of the elect, that they also may obtain the salvation that is in Christ Jesus with eternal glory.</t>
+          <t>may the Lord grant him to find mercy from the Lord on u that day! and you well know all the service he v rendered at Ephesus. A Good Soldier of Christ Jesus</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2 Timothy 2:11</t>
+          <t>2 Timothy 2:1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>The saying is trustworthy, for: - If we have died with him, we will also live with him; -</t>
+          <t>You then, w my child, x be strengthened by the grace that is in Christ Jesus,</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2 Timothy 2:12</t>
+          <t>2 Timothy 2:2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>if we endure, we will also reign with him; - if we deny him, he also will deny us; -</t>
+          <t>and y what you have heard from me in the presence of many witnesses z entrust to faithful men,</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2 Timothy 2:13</t>
+          <t>2 Timothy 2:3</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>if we are faithless, he remains faithfu l16 for he cannot deny himself. A Worker Approved by God</t>
+          <t>a who will be able to teach others also.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2 Timothy 2:14</t>
+          <t>2 Timothy 2:4</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Remind them of these things, and charge them before Go16 d not to quarrel about words, which does no good, but only ruins the hearers.</t>
+          <t>b Share in suffering as c a good soldier of Christ Jesus.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2 Timothy 2:15</t>
+          <t>2 Timothy 2:4</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Do your best to pre173 sent yourself to God as one approved, a worker who has no need to be ashamed, rightly handling the word of truth.</t>
+          <t>No soldier d gets entangled in civilian pursuits, since his aim is to please the one who enlisted him.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2 Timothy 2:16</t>
+          <t>2 Timothy 2:5</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>But avoid irreverent babble, for it will lead people into more and more ungodliness,</t>
+          <t>e An athlete is not f crowned unless he competes according to the rules.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2 Timothy 2:17</t>
+          <t>2 Timothy 2:6</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>and their talk will spread like gangrene. Among them are Hymenaeus and Philetus,</t>
+          <t>It is g the hard-working farmer who ought to have the first share of the crops.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2 Timothy 2:18</t>
+          <t>2 Timothy 2:7</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>who have swerved from the truth, saying that the resurrection has already happened. They are upsetting the faith of some.</t>
+          <t>Think over what I say, for the Lord will give you understanding in everything.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2 Timothy 2:19</t>
+          <t>2 Timothy 2:8</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>But God's firm foundation stands, bearing this seal: The Lord knows those who are his, and, Let everyone who names the name of the Lord depart from iniquity.</t>
+          <t>Remember Jesus Christ, h risen from the dead, the i offspring of David, j as preached in my gospel,</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2 Timothy 2:20</t>
+          <t>2 Timothy 2:9</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Now in a great house there are not only vessels of gold and silver but also of wood and clay, some for honorable use, some for dishonorable.</t>
+          <t>k for which I am suffering, l bound with chains as a criminal. But m the word of God is not bound!</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2 Timothy 2:21</t>
+          <t>2 Timothy 2:10</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Therefore, if anyone cleanses himself from what is dishonorable, he will be a vessel for honorable use, set apart as holy, useful to the master of the house, ready for every good work.</t>
+          <t>Therefore n I endure everything for the sake of the elect, that they also may obtain o the salvation that is in Christ Jesus with p eternal glory.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2 Timothy 2:22</t>
+          <t>2 Timothy 2:11</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>So flee youthful passions and pursue righteousness, faith, love, and peace, along with those who call on the Lord from a pure heart.</t>
+          <t>The saying is q trustworthy, for: r If we have died with him, we will also s live with him;</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2 Timothy 2:23</t>
+          <t>2 Timothy 2:12</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Have nothing to do with foolish, ignorant controversies; you know that they breed quarrels.</t>
+          <t>t if we endure, we will also reign with him; u if we deny him, he also will deny us;</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2 Timothy 2:24</t>
+          <t>2 Timothy 2:13</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>And the Lord's servan16 t must not be quarrelsome but kind to everyone, able to teach, patiently enduring evil,</t>
+          <t>v if we are faithless, w he remains faithfu l for x he cannot deny himself. A Worker Approved by God</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2 Timothy 2:25</t>
+          <t>2 Timothy 2:14</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>correcting his opponents with gentleness. God may perhaps grant them repentance leading to a knowledge of the truth,</t>
+          <t>Remind them of these things, and y charge them before Go d</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2 Timothy 2:26</t>
+          <t>2 Timothy 2:15</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>and they may come to their senses and escape from the snare of the devil, after being captured by him to do his will. Godlessness in the Last Days 3</t>
+          <t>z not to quarrel about words, a which does no good, but only ruins the hearers.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2 Timothy 3:1</t>
+          <t>2 Timothy 2:15</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>But understand this, that in the last days there will come times of difficulty. 2</t>
+          <t>Do your best to pre?sent yourself to God as one approved, a worker b who has no need to be ashamed, rightly handling the word of truth.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2 Timothy 3:2</t>
+          <t>2 Timothy 2:16</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>For people will be lovers of self, lovers of money, proud, arrogant, abusive, disobedient to their parents, ungrateful, unholy, 3</t>
+          <t>But c avoid d irreverent babble, for it will lead people into more and more ungodliness,</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2 Timothy 3:4</t>
+          <t>2 Timothy 2:17</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>treacherous, reckless, swollen with conceit, lovers of pleasure rather than lovers of God, 5</t>
+          <t>and their talk will spread like gangrene. Among them are e Hymenaeus and Philetus,</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2 Timothy 3:5</t>
+          <t>2 Timothy 2:18</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>having the appearance of godliness, but denying its power. Avoid such people. 6</t>
+          <t>who have swerved from the truth, f saying that the resurrection has already happened. They are upsetting the faith of some.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2 Timothy 3:6</t>
+          <t>2 Timothy 2:19</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>For among them are those who creep into households and capture weak women, burdened with sins and led astray by various passions, 7</t>
+          <t>But God s firm foundation stands, bearing this seal: g The Lord knows those who are his, and, Let everyone h who names the name of the Lord depart from iniquity.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2 Timothy 3:7</t>
+          <t>2 Timothy 2:20</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>always learning and never able to arrive at a knowledge of the truth. 8</t>
+          <t>Now in i a great house there are not only vessels of gold and silver but also of wood and clay, j some for honorable use, some for dishonorable.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2 Timothy 3:8</t>
+          <t>2 Timothy 2:21</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Just as Jannes and Jambres opposed Moses, so these men also oppose the truth, men corrupted in mind and disqualified regarding the faith. 9</t>
+          <t>Therefore, k if anyone cleanses himself from what is dishonorable, he will be a vessel for honorable use, set apart as holy, useful to the master of the house, l ready for every good work.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2 Timothy 3:9</t>
+          <t>2 Timothy 2:22</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>But they will not get very far, for their folly will be plain to all, as was that of those two men. All Scripture Is Breathed Out by God</t>
+          <t>So m flee n youthful passions and pursue righteousness, faith, love, and peace, along with o those who call on the Lord p from a pure heart.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2 Timothy 3:11</t>
+          <t>2 Timothy 2:23</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>my persecutions and sufferings that happened to me at Antioch, at Iconium, and at Lystr16 a which persecutions I endured; yet from them all the Lord rescued me.</t>
+          <t>Have nothing to do with foolish, ignorant q controversies; you know that they breed quarrels.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2 Timothy 3:12</t>
+          <t>2 Timothy 2:24</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Indeed, all who desire to live a godly life in Christ Jesus will be persecuted,</t>
+          <t>And r the Lord s servan t must not be quarrelsome but s kind to everyone, t able to teach, patiently enduring evil,</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2 Timothy 3:13</t>
+          <t>2 Timothy 2:25</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>while evil people and impostors will go on from bad to worse, deceiving and being deceived.</t>
+          <t>correcting his opponents u with gentleness. God v may perhaps grant them repentance w leading to a knowledge of the truth,</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2 Timothy 3:14</t>
+          <t>2 Timothy 2:26</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>But as for you, continue in what you have learned and have firmly believed, knowing from who m you learned it</t>
+          <t>and they may come to their senses and escape from x the snare of the devil, after being captured by him to do his will. Godlessness in the Last Days</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2 Timothy 3:15</t>
+          <t>2 Timothy 3:1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>and how from childhood you have been acquainted with the sacred writings, which are able to make you wise for salvation through faith in Christ Jesus.</t>
+          <t>But understand this, that y in the last days there will come times of difficulty.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2 Timothy 3:17</t>
+          <t>2 Timothy 3:2</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>that the man of Go16 d may be complete, equipped for every good work. Preach the Word 4</t>
+          <t>For people will be z lovers of self, a lovers of money, b proud, b arrogant, abusive, b disobedient to their parents, ungrateful, unholy,</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2 Timothy 4:2</t>
+          <t>2 Timothy 3:3</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>preach the word; be ready in season and out of season; reprove, rebuke, and exhort, with complete patience and teaching. 3</t>
+          <t>c heartless, unappeasable, slanderous, without self-control, brutal, d not loving good,</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2 Timothy 4:4</t>
+          <t>2 Timothy 3:4</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>and will turn away from listening to the truth and wander off into myths. 5</t>
+          <t>treacherous, reckless, e swollen with conceit, f lovers of pleasure rather than lovers of God,</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2 Timothy 4:5</t>
+          <t>2 Timothy 3:5</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>But as for you, always be sober- minded, endure suffering, do the work of an evangelist, fulfill your ministry. 6</t>
+          <t>having the appearance of godliness, but g denying its power. h Avoid such people.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2 Timothy 4:6</t>
+          <t>2 Timothy 3:6</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>For I m already being poured out as a drink offering, and the time of my departure has come. 7</t>
+          <t>For among them are i those who creep into households and capture weak women, burdened with sins and led astray by various passions,</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2 Timothy 4:8</t>
+          <t>2 Timothy 3:7</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Henceforth there is laid up for me the crown of righteousness, which the Lord, the righteous judge, will award to me on that day, and not only to me but also to all who have loved his appearing. Personal Instructions 9</t>
+          <t>always learning and never able to j arrive at a knowledge of the truth.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2 Timothy 4:10</t>
+          <t>2 Timothy 3:8</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>For Demas, in love with this pres173 ent world, has deserted me and gone to Thessalonica. Crescens has gone to Galatia, Titus to Dalmatia.</t>
+          <t>Just as k Jannes and Jambres l opposed Moses, so these men also oppose the truth, m men corrupted in mind and n disqualified regarding the faith.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2 Timothy 4:13</t>
+          <t>2 Timothy 3:9</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>When you come, bring the cloak that I left with Carpus at Troas, also the books, and above all the parchments.</t>
+          <t>But they will not get very far, for their folly will be plain to all, o as was that of those two men. All Scripture Is Breathed Out by God</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2 Timothy 4:15</t>
+          <t>2 Timothy 3:10</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Beware of him yourself, for he strongly opposed our message.</t>
+          <t>p You, however, have followed my teaching, my conduct, my aim in life, my faith, my patience, my love, my steadfastness,</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2 Timothy 4:16</t>
+          <t>2 Timothy 3:11</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>At my first defense no one came to stand by me, but all deserted me. May it not be charged against them!</t>
+          <t>my persecutions and sufferings that happened to me q at Antioch, r at Iconium, and s at Lystr a which persecutions I endured; yet t from them all u the Lord rescued me.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2 Timothy 4:17</t>
+          <t>2 Timothy 3:12</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>But the Lord stood by me and strengthened me, so that through me the message might be fully proclaimed and all the Gentiles might hear it. So I was rescued from the lion's mouth.</t>
+          <t>Indeed, all who desire to v live a godly life in Christ Jesus w will be persecuted,</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2 Timothy 4:18</t>
+          <t>2 Timothy 3:13</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>The Lord will rescue me from every evil deed and bring me safely into his heavenly kingdom. To him be the glory forever and ever. Amen. Final Greetings</t>
+          <t>while x evil people and impostors will go on from bad to worse, deceiving and y being deceived.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2 Timothy 4:19</t>
+          <t>2 Timothy 3:14</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Greet Prisca and Aquila, and the household of Onesiphorus.</t>
+          <t>But as for you, z continue in what you have learned and have firmly believed, knowing from who m you learned it</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2 Timothy 4:20</t>
+          <t>2 Timothy 3:15</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Erastus remained at Corinth, and I left Trophimus, who was ill, at Miletus.</t>
+          <t>and how a from childhood you have been acquainted with b the sacred writings, c which are able to make you wise for salvation through faith in Christ Jesus.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>2 Timothy 3:16</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>d All Scripture is breathed out by God and profitable for teaching, for reproof, for correction, and for training in righteousness,</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2 Timothy 3:17</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>that e the man of Go d may be complete, f equipped g for every good work. Preach the Word</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2 Timothy 3:18</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>h I charge you in the presence of God and of Christ Jesus, i who is to judge the living and the dead, and by j his appearing and his kingdom:</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2 Timothy 4:2</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>preach the word; be ready in season and out of season; k reprove, rebuke, and l exhort, with complete patience and teaching.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2 Timothy 4:3</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>m For the time is coming when people will not endure n soun d teaching, but having itching ears they will accumulate for themselves teachers to suit their own passions,</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2 Timothy 4:4</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>and o will turn away from listening to the truth and p wander off into myths.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2 Timothy 4:5</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>But as for you, q always be sober-minded, r endure suffering, do the work of s an evangelist, t fulfill your ministry.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2 Timothy 4:6</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>For u I am already being poured out as a drink offering, and the time of my v departure has come.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2 Timothy 4:7</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>w I have fought the good fight, x I have finished the race, I have kept the faith.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2 Timothy 4:8</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Henceforth there is y laid up for me z the crown of righteousness, which the Lord, a the righteous judge, will award to me on b that day, and not only to me but also to all c who have loved his appearing. Personal Instructions</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2 Timothy 4:9</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>d Do your best to come to me soon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2 Timothy 4:10</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>For e Demas, f in love with g this pres?ent world, h has deserted me and gone to Thessalonica. Crescens has gone to Galatia,</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2 Timothy 4:11</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>i Titus to Dalmatia.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2 Timothy 4:12</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>h Luke alone is with me. Get j Mark and bring him with you, for he is very useful to me for ministry.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2 Timothy 4:13</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>k Tychicus I have sent to Ephesus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2 Timothy 4:13</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>When you come, bring the cloak that I left with Carpus at Troas, also the books, and above all the parchments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2 Timothy 4:14</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>l Alexander the coppersmith did me great harm; m the Lord will repay him according to his deeds.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2 Timothy 4:15</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Beware of him yourself, for he strongly opposed our message.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2 Timothy 4:16</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>At my first defense no one came to stand by me, but all deserted me. n May it not be charged against them!</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2 Timothy 4:17</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>But o the Lord stood by me and p strengthened me, so that through me the message might be fully proclaimed and q all the Gentiles might hear it. So r I was rescued s from the lion s mouth.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2 Timothy 4:18</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>The Lord will rescue me from every evil deed and bring me safely into his heavenly kingdom. t To him be the glory forever and ever. Amen. Final Greetings</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2 Timothy 4:19</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Greet u Prisca and Aquila, and v the household of Onesiphorus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2 Timothy 4:20</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Erastus remained at Corinth, and I left w Trophimus, who was ill, at Miletus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2 Timothy 4:21</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>x Do your best to come before winter. Eubulus sends greetings to you, as do Pudens and Linus and Claudia and all the brothers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
           <t>2 Timothy 4:22</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>The Lord be with your spirit. Grace be with you.</t>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>The Lord be y with your spirit. z Grace be with you.</t>
         </is>
       </c>
     </row>
